--- a/analyze/outputAll2.xlsx
+++ b/analyze/outputAll2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,127 +434,800 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="n">
-        <v>2014</v>
-      </c>
+      <c r="A1" s="1" t="inlineStr"/>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>57,6</t>
+          <t>2014</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>53,7</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>6,8</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>1,6</t>
+          <t>2017 2018</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>2015</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>59,4</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>55,1</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>7,2</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>1,7</t>
-        </is>
-      </c>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Численность студентов в средних профессио-</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>2016</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>нальных организациях, человек</t>
+        </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>58,2</t>
+          <t>31659</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>53,0</t>
+          <t>33161</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>8,9</t>
+          <t>47310</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1,5</t>
+          <t>47533 48342</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>2017</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>57,1</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>53,2</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>6,9</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>1,4</t>
-        </is>
-      </c>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>в том числе:</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>2018</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>в государственных и муниципальных</t>
+        </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>58,9</t>
+          <t>30278</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>55,3</t>
+          <t>31605</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>6,2</t>
+          <t>45674</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1,3</t>
+          <t>45698 46198</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>на 10 000 человек населения</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>127,0</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>133,0</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>193,1</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>194,5 198,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>в негосударственных</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1381</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1556</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1636</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>1835 2144</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Принято студентов в организации среднего про-</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>фессионального образования, человек</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>10384</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>10758</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>15047</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>15855 16282</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>в том числе:</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>в государственные и муниципальные</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>9855</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>10170</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>14401</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>15096 15353</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>в негосударственные</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>529</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>588</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>646</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>759 929</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Выпущено специалистов из организаций среднего</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>профессионального образования, человек</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>6950</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>6620</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>11734</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>11899 11585</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>в том числе:</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>из государственных и муниципальных</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>6593</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>6264</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>11369</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>11517 11154</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>из негосударственных</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>357</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>356</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>365</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>382 431</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Число организаций высшего профессионального</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>образования</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>10/18</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>10/16</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>10/13</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>7/10 7/10</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>в том числе:</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>государственных и муниципальных</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>7/11</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>7/11</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>7/9</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>7/8 7/8</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>негосударственных</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>3/7</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>3/5</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3/4</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>-/2 -/2</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Численность обучающихся в организациях выс-</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>шего профессионального образования, человек</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>69252</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>60711</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>52127</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>51129 50297</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>в том числе:</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>в государственных и муниципальных</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>57217</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>51798</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>49347</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>49845 49250</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>на 10 000 человек населения</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>239,9</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>217,9</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>208,6</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>212,1 211,1</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>в негосударственных</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>12035</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>8913</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2780</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>1284 1047</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Принято студентов в организации высшего про-</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>фессионального образования, человек</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>14520</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>14080</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>12984</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>13780 13197</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>в том числе:</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>в государственные и муниципальные</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>12970</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>12752</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>12644</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>13508 12945</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>в негосударственные</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>1550</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>1328</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>340</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>272 252</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Выпущено специалистов из организаций высшего</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>профессионального образования, человек</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>14836</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>15092</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>13265</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>10458 10255</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>в том числе:</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>из государственных и муниципальных</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>12852</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>13394</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>12009</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>10023 9993</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>из негосударственных</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>1698</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1256</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>435 262</t>
         </is>
       </c>
     </row>
